--- a/Win32/Binaries/Table/herofashion.xlsx
+++ b/Win32/Binaries/Table/herofashion.xlsx
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -524,6 +524,22 @@
       </c>
       <c r="B4" s="2">
         <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -540,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -591,6 +607,22 @@
         <v>201</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
